--- a/ListaKomponentów.xlsx
+++ b/ListaKomponentów.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19f885ace014f6af/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{440206A3-3279-4C1B-999A-56BB16FA4009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE7ACF-72C1-4D8E-A2CD-AD566D80D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F661339A-A29C-45DB-BE95-D624A1F2F695}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F661339A-A29C-45DB-BE95-D624A1F2F695}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>LP.</t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>Pojemnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. </t>
+  </si>
+  <si>
+    <t>Zasilacz 12V</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Przewody</t>
+  </si>
+  <si>
+    <t>tranzystorek sterowany z raspberry</t>
+  </si>
+  <si>
+    <t>przekaźnik</t>
+  </si>
+  <si>
+    <t>&gt; zamiast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. </t>
+  </si>
+  <si>
+    <t>Przekaznik</t>
+  </si>
+  <si>
+    <t>Przekaźnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Możliwe że przetwornica jest nie potrzebna</t>
   </si>
 </sst>
 </file>
@@ -157,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -303,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,18 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88967FFB-EE07-4B87-9F53-ACD7E6C82748}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -506,7 +539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -520,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -533,8 +566,20 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -546,6 +591,39 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -555,6 +633,7 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{D9F00D1C-0A96-4997-8A75-1AF60EF8A003}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{CCD8AC63-5101-40B4-B472-4603340B166F}"/>
     <hyperlink ref="D3" r:id="rId5" xr:uid="{ADAF387B-F2AA-4269-9006-B7B25C188553}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{84DCC4EA-0842-4C9E-956F-45BBF3BC7F56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
